--- a/Codigos/Data/instancias_paper/bays29.xlsx
+++ b/Codigos/Data/instancias_paper/bays29.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogutierrezaguirre/Desktop/Proyecto profe carlos/instancias_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogutierrezaguirre/Desktop/TSPJ_git/Codigos/Data/instancias_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FA5CC-0763-4D4A-873F-2EE6C521DE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75AE59D-DF1D-F34D-930E-B642511BD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="1180" windowWidth="28800" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,11 +553,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,29 +918,26 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>2892</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>3525</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <f>MIN(JT!C3:AD30)</f>
         <v>1010</v>
       </c>
@@ -3919,7 +3914,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE105F-EE24-4B4B-B4EE-AF6961825803}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
@@ -3931,7 +3926,7 @@
     <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -4020,2733 +4015,2673 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>1114</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1369</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1205</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>1275</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>1126</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>1387</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>1565</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>1415</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>1153</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>1576</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>1546</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>1451</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>1514</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>1391</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>1552</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3">
         <v>1610</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3">
         <v>1593</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>1498</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>1409</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>1279</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>1426</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3">
         <v>1499</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3">
         <v>1206</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3">
         <v>1061</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3">
         <v>1328</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3">
         <v>1578</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3">
         <v>1555</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3">
         <v>1405</v>
       </c>
-      <c r="AE3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>1204</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>1464</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>1420</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1121</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>1056</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>1535</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>1230</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>1537</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>1040</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>1222</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>1486</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>1458</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>1559</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>1573</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>1327</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4">
         <v>1248</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4">
         <v>1423</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>1507</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4">
         <v>1287</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4">
         <v>1147</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>1120</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4">
         <v>1431</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4">
         <v>1519</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4">
         <v>1507</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4">
         <v>1396</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4">
         <v>1306</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4">
         <v>1583</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4">
         <v>1598</v>
       </c>
-      <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1184</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>1330</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>1541</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>1173</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>1491</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>1167</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>1092</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>1325</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>1335</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>1322</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>1233</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>1482</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>1348</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>1494</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>1026</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>1470</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>1175</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>1249</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>1456</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>1413</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>1048</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5">
         <v>1170</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5">
         <v>1160</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5">
         <v>1323</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5">
         <v>1365</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5">
         <v>1115</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5">
         <v>1061</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5">
         <v>1562</v>
       </c>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>1283</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1084</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1372</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1087</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>1099</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>1041</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>1404</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>1189</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>1229</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>1168</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>1160</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>1141</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>1112</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>1367</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>1367</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6">
         <v>1392</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6">
         <v>1264</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>1076</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6">
         <v>1344</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6">
         <v>1334</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>1069</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6">
         <v>1236</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6">
         <v>1139</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6">
         <v>1346</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6">
         <v>1344</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6">
         <v>1065</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6">
         <v>1476</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6">
         <v>1364</v>
       </c>
-      <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1616</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>1300</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>1168</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1059</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>1526</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1174</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>1213</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>1198</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>1115</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>1038</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>1213</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>1521</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>1029</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>1611</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>1350</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>1563</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>1609</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>1413</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>1504</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7">
         <v>1392</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>1263</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7">
         <v>1453</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7">
         <v>1275</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7">
         <v>1463</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7">
         <v>1170</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>1542</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>1217</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7">
         <v>1131</v>
       </c>
-      <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>1162</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>1366</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>1049</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>1158</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>1011</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>1387</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>1026</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>1064</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>1147</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>1362</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>1302</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>1192</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>1220</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>1448</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <v>1049</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8">
         <v>1021</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8">
         <v>1204</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8">
         <v>1480</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8">
         <v>1595</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8">
         <v>1372</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8">
         <v>1244</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8">
         <v>1517</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8">
         <v>1283</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8">
         <v>1101</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8">
         <v>1118</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8">
         <v>1566</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8">
         <v>1470</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8">
         <v>1066</v>
       </c>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>1352</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>1157</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>1377</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>1310</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>1593</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>1315</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>1113</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>1381</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>1561</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>1063</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>1169</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>1053</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>1361</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>1341</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>1433</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9">
         <v>1114</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9">
         <v>1283</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>1612</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>1425</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9">
         <v>1485</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9">
         <v>1261</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9">
         <v>1108</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9">
         <v>1557</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9">
         <v>1279</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9">
         <v>1211</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9">
         <v>1369</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9">
         <v>1293</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9">
         <v>1206</v>
       </c>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1329</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>1071</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>1459</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>1180</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>1521</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>1386</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>1217</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>1364</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>1562</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>1056</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>1325</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>1443</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>1380</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>1206</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>1137</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10">
         <v>1410</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10">
         <v>1019</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>1450</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10">
         <v>1525</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10">
         <v>1102</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10">
         <v>1288</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10">
         <v>1072</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10">
         <v>1425</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10">
         <v>1591</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10">
         <v>1403</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10">
         <v>1273</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10">
         <v>1175</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10">
         <v>1451</v>
       </c>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>1520</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>1537</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>1499</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>1030</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>1521</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>1508</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>1294</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>1464</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>1128</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>1507</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>1595</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>1563</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>1132</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <v>1258</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <v>1511</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11">
         <v>1376</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11">
         <v>1132</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11">
         <v>1186</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11">
         <v>1207</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11">
         <v>1588</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11">
         <v>1513</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11">
         <v>1106</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11">
         <v>1253</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11">
         <v>1510</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11">
         <v>1486</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11">
         <v>1472</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11">
         <v>1202</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11">
         <v>1331</v>
       </c>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>1338</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>1228</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>1301</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>1108</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>1118</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>1184</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>1361</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>1335</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>1478</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>1035</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>1163</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>1410</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>1543</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12">
         <v>1238</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
         <v>1600</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12">
         <v>1025</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12">
         <v>1534</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12">
         <v>1340</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12">
         <v>1360</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12">
         <v>1467</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12">
         <v>1443</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12">
         <v>1285</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12">
         <v>1241</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12">
         <v>1210</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12">
         <v>1051</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12">
         <v>1577</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12">
         <v>1047</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12">
         <v>1379</v>
       </c>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>1133</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1049</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>1231</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>1198</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>1219</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>1318</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>1217</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>1281</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>1451</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>1282</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>1125</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>1548</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>1262</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <v>1440</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <v>1392</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13">
         <v>1113</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13">
         <v>1414</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>1505</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13">
         <v>1366</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13">
         <v>1084</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13">
         <v>1271</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13">
         <v>1424</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13">
         <v>1206</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13">
         <v>1537</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13">
         <v>1524</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13">
         <v>1413</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13">
         <v>1305</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13">
         <v>1083</v>
       </c>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>1027</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>1111</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>1099</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>1384</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>1118</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>1213</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>1285</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>1286</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>1182</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>1050</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>1495</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>1076</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>1122</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>1411</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>1255</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14">
         <v>1302</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14">
         <v>1186</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14">
         <v>1487</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14">
         <v>1397</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14">
         <v>1120</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14">
         <v>1565</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14">
         <v>1118</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14">
         <v>1254</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14">
         <v>1169</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14">
         <v>1385</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14">
         <v>1525</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14">
         <v>1568</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14">
         <v>1472</v>
       </c>
-      <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>1516</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>1612</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>1515</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>1473</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>1151</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>1011</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>1019</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>1370</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>1427</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>1583</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>1461</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>1069</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>1496</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <v>1016</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>1181</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15">
         <v>1496</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15">
         <v>1479</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
         <v>1038</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15">
         <v>1478</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15">
         <v>1578</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15">
         <v>1367</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15">
         <v>1191</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15">
         <v>1396</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15">
         <v>1057</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15">
         <v>1451</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15">
         <v>1227</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15">
         <v>1334</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15">
         <v>1376</v>
       </c>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>1104</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>1122</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>1426</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>1583</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>1397</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>1108</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>1179</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>1390</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>1367</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>1219</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>1351</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>1040</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>1461</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16">
         <v>1444</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16">
         <v>1175</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16">
         <v>1317</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16">
         <v>1193</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16">
         <v>1546</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16">
         <v>1538</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16">
         <v>1231</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16">
         <v>1134</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16">
         <v>1565</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16">
         <v>1483</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16">
         <v>1420</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16">
         <v>1136</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16">
         <v>1014</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16">
         <v>1158</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16">
         <v>1497</v>
       </c>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>1536</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>1238</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>1335</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>1283</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>1232</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>1377</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>1184</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>1273</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>1304</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>1054</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>1358</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>1153</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>1446</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>1591</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
         <v>1339</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17">
         <v>1260</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17">
         <v>1048</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17">
         <v>1378</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17">
         <v>1204</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17">
         <v>1348</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17">
         <v>1415</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17">
         <v>1374</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17">
         <v>1544</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17">
         <v>1182</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17">
         <v>1114</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17">
         <v>1394</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17">
         <v>1548</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17">
         <v>1577</v>
       </c>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1257</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>1415</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>1394</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>1123</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>1130</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>1181</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>1275</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>1351</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>1095</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>1295</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>1051</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>1585</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>1576</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18">
         <v>1240</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18">
         <v>1280</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18">
         <v>1485</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18">
         <v>1488</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18">
         <v>1552</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18">
         <v>1543</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18">
         <v>1374</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18">
         <v>1319</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18">
         <v>1106</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18">
         <v>1324</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18">
         <v>1220</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18">
         <v>1265</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18">
         <v>1468</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18">
         <v>1526</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18">
         <v>1108</v>
       </c>
-      <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>1020</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>1086</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>1551</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>1328</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>1096</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>1043</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>1344</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>1136</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>1022</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>1307</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>1498</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>1488</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>1484</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19">
         <v>1347</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19">
         <v>1078</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19">
         <v>1397</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19">
         <v>1522</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19">
         <v>1395</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19">
         <v>1456</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19">
         <v>1016</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19">
         <v>1265</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19">
         <v>1137</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19">
         <v>1361</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19">
         <v>1444</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19">
         <v>1078</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19">
         <v>1067</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19">
         <v>1288</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19">
         <v>1035</v>
       </c>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>1424</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>1132</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>1544</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>1168</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>1605</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>1305</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>1148</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>1322</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>1420</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>1418</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>1132</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>1322</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>1561</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20">
         <v>1566</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20">
         <v>1353</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20">
         <v>1494</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20">
         <v>1236</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20">
         <v>1341</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20">
         <v>1131</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20">
         <v>1362</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20">
         <v>1334</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20">
         <v>1502</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20">
         <v>1333</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20">
         <v>1574</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20">
         <v>1163</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20">
         <v>1026</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AC20">
         <v>1247</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20">
         <v>1029</v>
       </c>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1353</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>1392</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>1115</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>1345</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>1566</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>1322</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>1547</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>1560</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>1500</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>1388</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>1372</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>1431</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>1305</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21">
         <v>1455</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21">
         <v>1608</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21">
         <v>1068</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21">
         <v>1443</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21">
         <v>1040</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21">
         <v>1233</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21">
         <v>1612</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21">
         <v>1032</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21">
         <v>1579</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21">
         <v>1400</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21">
         <v>1303</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21">
         <v>1452</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21">
         <v>1344</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21">
         <v>1547</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21">
         <v>1365</v>
       </c>
-      <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>1530</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1461</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>1432</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>1567</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>1218</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>1215</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>1039</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>1556</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>1428</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>1267</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>1123</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>1286</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>1449</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22">
         <v>1151</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22">
         <v>1327</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22">
         <v>1321</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22">
         <v>1257</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22">
         <v>1063</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22">
         <v>1251</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22">
         <v>1301</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22">
         <v>1400</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22">
         <v>1592</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22">
         <v>1169</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22">
         <v>1204</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22">
         <v>1191</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22">
         <v>1167</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22">
         <v>1611</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AD22">
         <v>1474</v>
       </c>
-      <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>1064</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>1461</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>1234</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>1265</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>1608</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>1042</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>1412</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>1479</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23">
         <v>1116</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23">
         <v>1088</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>1184</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23">
         <v>1193</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23">
         <v>1138</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
         <v>1430</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
         <v>1375</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23">
         <v>1485</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23">
         <v>1252</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23">
         <v>1384</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23">
         <v>1577</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23">
         <v>1278</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23">
         <v>1263</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23">
         <v>1243</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y23">
         <v>1086</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23">
         <v>1308</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA23">
         <v>1112</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23">
         <v>1376</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23">
         <v>1231</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AD23">
         <v>1397</v>
       </c>
-      <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>1294</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>1307</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>1345</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>1496</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>1463</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>1319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>1206</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24">
         <v>1309</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24">
         <v>1271</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24">
         <v>1612</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
         <v>1281</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24">
         <v>1275</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24">
         <v>1346</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24">
         <v>1047</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24">
         <v>1560</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24">
         <v>1522</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24">
         <v>1067</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24">
         <v>1205</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24">
         <v>1137</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24">
         <v>1306</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24">
         <v>1475</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24">
         <v>1362</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y24">
         <v>1505</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24">
         <v>1515</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24">
         <v>1087</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24">
         <v>1555</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AC24">
         <v>1118</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AD24">
         <v>1055</v>
       </c>
-      <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>1380</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>1010</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>1399</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>1363</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
         <v>1245</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25">
         <v>1589</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>1429</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>1147</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>1211</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>1126</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>1167</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>1113</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25">
         <v>1403</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25">
         <v>1187</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
         <v>1587</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25">
         <v>1163</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25">
         <v>1571</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25">
         <v>1150</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25">
         <v>1490</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25">
         <v>1513</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25">
         <v>1107</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25">
         <v>1372</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25">
         <v>1189</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25">
         <v>1318</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25">
         <v>1273</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25">
         <v>1581</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25">
         <v>1339</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25">
         <v>1139</v>
       </c>
-      <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>1118</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>1422</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>1590</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>1420</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <v>1519</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <v>1526</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>1116</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <v>1299</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <v>1108</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <v>1118</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <v>1358</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <v>1516</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26">
         <v>1215</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <v>1566</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
         <v>1456</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26">
         <v>1023</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26">
         <v>1048</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26">
         <v>1573</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26">
         <v>1388</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26">
         <v>1386</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26">
         <v>1438</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26">
         <v>1072</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26">
         <v>1463</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26">
         <v>1322</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA26">
         <v>1501</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26">
         <v>1431</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26">
         <v>1425</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26">
         <v>1492</v>
       </c>
-      <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>1029</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>1144</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>1381</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>1129</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
         <v>1590</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27">
         <v>1101</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>1224</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>1474</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27">
         <v>1409</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27">
         <v>1307</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
         <v>1427</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27">
         <v>1516</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27">
         <v>1613</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27">
         <v>1155</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27">
         <v>1245</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27">
         <v>1158</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27">
         <v>1132</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27">
         <v>1165</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27">
         <v>1126</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27">
         <v>1201</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27">
         <v>1152</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27">
         <v>1093</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y27">
         <v>1491</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="Z27">
         <v>1532</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AA27">
         <v>1281</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AB27">
         <v>1017</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC27">
         <v>1242</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AD27">
         <v>1211</v>
       </c>
-      <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>1612</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1246</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>1471</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>1489</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
         <v>1489</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28">
         <v>1319</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>1141</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28">
         <v>1033</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28">
         <v>1284</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28">
         <v>1143</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
         <v>1531</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28">
         <v>1114</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28">
         <v>1159</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28">
         <v>1490</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28">
         <v>1444</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28">
         <v>1210</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28">
         <v>1200</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28">
         <v>1492</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28">
         <v>1074</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28">
         <v>1130</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28">
         <v>1205</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28">
         <v>1389</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y28">
         <v>1495</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z28">
         <v>1184</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA28">
         <v>1219</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB28">
         <v>1616</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AC28">
         <v>1499</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AD28">
         <v>1530</v>
       </c>
-      <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>1292</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>1181</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>1043</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>1140</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
         <v>1465</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29">
         <v>1196</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>1397</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>1178</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29">
         <v>1399</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29">
         <v>1119</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
         <v>1479</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29">
         <v>1053</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>1063</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>1351</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
         <v>1611</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29">
         <v>1016</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29">
         <v>1163</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29">
         <v>1302</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29">
         <v>1233</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29">
         <v>1215</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29">
         <v>1227</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29">
         <v>1364</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y29">
         <v>1182</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29">
         <v>1411</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA29">
         <v>1577</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB29">
         <v>1115</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29">
         <v>1109</v>
       </c>
-      <c r="AD29" s="1">
+      <c r="AD29">
         <v>1465</v>
       </c>
-      <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>1086</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>1310</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>1230</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>1431</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <v>1421</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <v>1282</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>1417</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <v>1436</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <v>1324</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <v>1305</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <v>1283</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <v>1503</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <v>1404</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>1244</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
         <v>1513</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30">
         <v>1172</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30">
         <v>1236</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30">
         <v>1468</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30">
         <v>1510</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30">
         <v>1473</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30">
         <v>1170</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30">
         <v>1302</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y30">
         <v>1214</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z30">
         <v>1217</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AA30">
         <v>1536</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AB30">
         <v>1586</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30">
         <v>1287</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AD30">
         <v>1197</v>
       </c>
-      <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6758,7 +6693,7 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6869,7 +6804,7 @@
       <c r="C2">
         <v>107</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>241</v>
       </c>
       <c r="E2">
@@ -6982,7 +6917,7 @@
       <c r="J3">
         <v>134</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>95</v>
       </c>
       <c r="L3">
@@ -7015,7 +6950,7 @@
       <c r="U3">
         <v>67</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>42</v>
       </c>
       <c r="W3">
@@ -7166,7 +7101,7 @@
       <c r="J5">
         <v>248</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>42</v>
       </c>
       <c r="L5">
@@ -7255,7 +7190,7 @@
       <c r="I6">
         <v>202</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>46</v>
       </c>
       <c r="K6">
@@ -7306,7 +7241,7 @@
       <c r="Z6">
         <v>307</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>57</v>
       </c>
       <c r="AB6">
@@ -7837,7 +7772,7 @@
       <c r="S12">
         <v>141</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <v>95</v>
       </c>
       <c r="U12">
@@ -7846,7 +7781,7 @@
       <c r="V12">
         <v>254</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <v>103</v>
       </c>
       <c r="X12">
@@ -7890,7 +7825,7 @@
       <c r="F13">
         <v>112</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>55</v>
       </c>
       <c r="H13">
@@ -7899,7 +7834,7 @@
       <c r="I13">
         <v>193</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>89</v>
       </c>
       <c r="K13">
@@ -8107,7 +8042,7 @@
       <c r="Q15">
         <v>191</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>59</v>
       </c>
       <c r="S15">
@@ -8122,7 +8057,7 @@
       <c r="V15">
         <v>255</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <v>44</v>
       </c>
       <c r="X15">
@@ -8160,7 +8095,7 @@
       <c r="D16">
         <v>412</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>38</v>
       </c>
       <c r="F16">
@@ -8279,7 +8214,7 @@
       <c r="M17">
         <v>279</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>75</v>
       </c>
       <c r="O17">
@@ -8321,7 +8256,7 @@
       <c r="AA17">
         <v>277</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AB17" s="1">
         <v>55</v>
       </c>
       <c r="AC17">
@@ -8469,13 +8404,13 @@
       <c r="O19">
         <v>35</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="1">
         <v>56</v>
       </c>
       <c r="Q19">
         <v>178</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <v>66</v>
       </c>
       <c r="S19">
@@ -8614,7 +8549,7 @@
       <c r="B21">
         <v>150</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>67</v>
       </c>
       <c r="D21">
@@ -8638,7 +8573,7 @@
       <c r="J21">
         <v>201</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>28</v>
       </c>
       <c r="L21">
@@ -8703,7 +8638,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>65</v>
       </c>
       <c r="C22">
@@ -8905,7 +8840,7 @@
       <c r="G24">
         <v>249</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>168</v>
       </c>
       <c r="I24">
@@ -8965,7 +8900,7 @@
       <c r="AA24">
         <v>345</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AB24" s="1">
         <v>80</v>
       </c>
       <c r="AC24">
@@ -9000,7 +8935,7 @@
       <c r="H25">
         <v>249</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>57</v>
       </c>
       <c r="J25">
@@ -9015,7 +8950,7 @@
       <c r="M25">
         <v>200</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>74</v>
       </c>
       <c r="O25">
@@ -9089,7 +9024,7 @@
       <c r="G26">
         <v>301</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>95</v>
       </c>
       <c r="I26">
@@ -9125,7 +9060,7 @@
       <c r="S26">
         <v>181</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="1">
         <v>69</v>
       </c>
       <c r="U26">
@@ -9362,13 +9297,13 @@
       <c r="F29">
         <v>121</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>60</v>
       </c>
       <c r="H29">
         <v>314</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>81</v>
       </c>
       <c r="J29">
@@ -9445,7 +9380,7 @@
       <c r="C30">
         <v>79</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>77</v>
       </c>
       <c r="E30">
@@ -9514,7 +9449,7 @@
       <c r="Z30">
         <v>350</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30" s="1">
         <v>39</v>
       </c>
       <c r="AB30">

--- a/Codigos/Data/instancias_paper/bays29.xlsx
+++ b/Codigos/Data/instancias_paper/bays29.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogutierrezaguirre/Desktop/TSPJ_git/Codigos/Data/instancias_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogutierrezaguirre/Desktop/Proyecto profe carlos/instancias_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75AE59D-DF1D-F34D-930E-B642511BD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FA5CC-0763-4D4A-873F-2EE6C521DE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="1180" windowWidth="28800" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,9 +553,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,26 +920,29 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2892</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3525</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>MIN(JT!C3:AD30)</f>
         <v>1010</v>
       </c>
@@ -3914,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE105F-EE24-4B4B-B4EE-AF6961825803}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
@@ -3926,7 +3931,7 @@
     <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -4015,2673 +4020,2733 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1114</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1369</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1205</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1275</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1126</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>1387</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>1565</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>1415</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>1153</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>1576</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>1546</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>1451</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>1514</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>1391</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>1552</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>1610</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>1593</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>1498</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>1409</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>1279</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>1426</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>1499</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>1206</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>1061</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>1328</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <v>1578</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>1555</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>1405</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>1204</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1464</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1420</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1121</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1056</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1535</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>1230</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>1537</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>1040</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>1222</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>1486</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>1458</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>1559</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>1573</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>1327</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>1248</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>1423</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>1507</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>1287</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>1147</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>1120</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>1431</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>1519</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>1507</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>1396</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>1306</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>1583</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>1598</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>1184</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1330</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1541</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1173</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1491</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>1167</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>1092</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>1325</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>1335</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>1322</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>1233</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>1482</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>1348</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>1494</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>1026</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>1470</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>1175</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>1249</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>1456</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>1413</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>1048</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>1170</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>1160</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>1323</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>1365</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="1">
         <v>1115</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>1061</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>1562</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>1283</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1084</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1372</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1087</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1099</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>1041</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>1404</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>1189</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>1229</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>1168</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>1160</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>1141</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>1112</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>1367</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>1367</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>1392</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>1264</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>1076</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>1344</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <v>1334</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>1069</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>1236</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>1139</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>1346</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <v>1344</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="1">
         <v>1065</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="1">
         <v>1476</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>1364</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
         <v>1616</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1300</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1168</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>1059</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1526</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>1174</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>1213</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>1198</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>1115</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>1038</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>1213</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>1521</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>1029</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>1611</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>1350</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>1563</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>1609</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>1413</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>1504</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>1392</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>1263</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>1453</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>1275</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>1463</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>1170</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <v>1542</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
         <v>1217</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>1131</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>1162</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1366</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1049</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1158</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>1011</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>1387</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>1026</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>1064</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>1147</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>1362</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>1302</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>1192</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>1220</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>1448</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>1049</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>1021</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>1204</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>1480</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>1595</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <v>1372</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>1244</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="1">
         <v>1517</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <v>1283</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <v>1101</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <v>1118</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="1">
         <v>1566</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="1">
         <v>1470</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="1">
         <v>1066</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>1352</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1157</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1377</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>1310</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1593</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>1315</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>1113</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>1381</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>1561</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>1063</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>1169</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>1053</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>1361</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>1341</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>1433</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>1114</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>1283</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>1612</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>1425</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <v>1485</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>1261</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>1108</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="1">
         <v>1557</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>1279</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>1211</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="1">
         <v>1369</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="1">
         <v>1293</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>1329</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1071</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>1459</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1180</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1521</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>1386</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>1217</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>1364</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>1562</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>1056</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>1325</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>1443</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>1380</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>1206</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>1137</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>1410</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>1019</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>1450</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>1525</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>1102</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>1288</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>1072</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="1">
         <v>1425</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>1591</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>1403</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="1">
         <v>1273</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="1">
         <v>1175</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="1">
         <v>1451</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>1520</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>1537</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>1499</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1030</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1521</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>1508</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>1294</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>1464</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>1128</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>1507</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>1595</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>1563</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>1132</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>1258</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>1511</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>1376</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>1132</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>1186</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>1207</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>1588</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>1513</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>1106</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <v>1253</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>1510</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <v>1486</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="1">
         <v>1472</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="1">
         <v>1202</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="1">
         <v>1331</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>1338</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1228</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1301</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>1108</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1118</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>1184</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>1361</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>1335</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>1478</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>1035</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>1163</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>1410</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>1543</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>1238</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>1600</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>1025</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>1534</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="1">
         <v>1340</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>1360</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>1467</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>1443</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="1">
         <v>1285</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="1">
         <v>1241</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <v>1210</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="1">
         <v>1051</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="1">
         <v>1577</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="1">
         <v>1047</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="1">
         <v>1379</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>1133</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1049</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>1231</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1198</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1219</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>1318</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>1217</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>1281</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>1451</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>1282</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>1125</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>1548</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>1262</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>1440</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>1392</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>1113</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>1414</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <v>1505</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>1366</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>1084</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>1271</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="1">
         <v>1424</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="1">
         <v>1206</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>1537</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>1524</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="1">
         <v>1413</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="1">
         <v>1305</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="1">
         <v>1083</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>1027</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>1111</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>1099</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1384</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1118</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>1213</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>1285</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>1286</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>1182</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>1050</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>1495</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>1076</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>1122</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>1411</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>1255</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>1302</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>1186</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
         <v>1487</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>1397</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>1120</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>1565</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="1">
         <v>1118</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="1">
         <v>1254</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <v>1169</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>1385</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="1">
         <v>1525</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="1">
         <v>1568</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="1">
         <v>1472</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>1516</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1612</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>1515</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1473</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1151</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>1011</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>1019</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>1370</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>1427</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>1583</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>1461</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>1069</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>1496</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>1016</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>1181</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>1496</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>1479</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>1038</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>1478</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>1578</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>1367</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="1">
         <v>1191</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>1396</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>1057</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>1451</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="1">
         <v>1227</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="1">
         <v>1334</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>1376</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>1104</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1122</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>1426</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1583</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1397</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>1108</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>1179</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1390</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>1367</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>1219</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>1351</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>1040</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>1461</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>1444</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>1175</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>1317</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>1193</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <v>1546</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>1538</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>1231</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>1134</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>1565</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <v>1483</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>1420</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>1136</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="1">
         <v>1014</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="1">
         <v>1158</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>1497</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>1536</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>1238</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>1335</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1283</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>1232</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>1377</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>1184</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>1273</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>1304</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>1054</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>1358</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>1153</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>1446</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>1591</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>1339</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>1260</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>1048</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <v>1378</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>1204</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <v>1348</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>1415</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="1">
         <v>1374</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="1">
         <v>1544</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <v>1182</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <v>1114</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="1">
         <v>1394</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="1">
         <v>1548</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="1">
         <v>1577</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>1257</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>1415</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1394</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>1123</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1130</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>1181</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>1275</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>1351</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>1095</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>1295</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>1051</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>1585</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>1576</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>1240</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>1280</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>1485</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>1488</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="1">
         <v>1552</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>1543</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <v>1374</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <v>1319</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="1">
         <v>1106</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="1">
         <v>1324</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <v>1220</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="1">
         <v>1265</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="1">
         <v>1468</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="1">
         <v>1526</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="1">
         <v>1108</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
         <v>1020</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1086</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>1551</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>1328</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>1096</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>1043</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>1344</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>1136</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>1022</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>1307</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>1498</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>1488</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>1484</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>1347</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>1078</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>1397</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>1522</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="1">
         <v>1395</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>1456</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <v>1016</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>1265</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>1137</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>1361</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>1444</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>1078</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="1">
         <v>1067</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="1">
         <v>1288</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="1">
         <v>1035</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
         <v>1424</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1132</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>1544</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>1168</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1605</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>1305</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>1148</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>1322</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1420</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>1418</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>1132</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>1322</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>1561</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>1566</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>1353</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>1494</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>1236</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <v>1341</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <v>1131</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <v>1362</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>1334</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>1502</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <v>1333</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="1">
         <v>1574</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="1">
         <v>1163</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="1">
         <v>1026</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="1">
         <v>1247</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="1">
         <v>1029</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>1353</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1392</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>1115</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>1345</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>1566</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>1322</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>1547</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>1560</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>1500</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>1388</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>1372</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>1431</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>1305</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>1455</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>1608</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>1068</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>1443</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>1040</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>1233</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="1">
         <v>1612</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <v>1032</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <v>1579</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <v>1400</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <v>1303</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <v>1452</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="1">
         <v>1344</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="1">
         <v>1547</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="1">
         <v>1365</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
         <v>1530</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>1461</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>1432</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>1567</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>1218</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>1215</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>1039</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>1556</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>1428</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>1267</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>1123</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>1286</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>1449</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>1151</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>1327</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>1321</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>1257</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>1063</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>1251</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>1301</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="1">
         <v>1400</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <v>1592</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>1169</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <v>1204</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>1191</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="1">
         <v>1167</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="1">
         <v>1611</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="1">
         <v>1474</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>1064</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1461</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>1234</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>1265</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>1608</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>1042</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>1412</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>1479</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>1116</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>1088</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>1184</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>1193</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>1138</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>1430</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>1375</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>1485</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <v>1252</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="1">
         <v>1384</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <v>1577</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="1">
         <v>1278</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>1263</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>1243</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <v>1086</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <v>1308</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <v>1112</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="1">
         <v>1376</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="1">
         <v>1231</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="1">
         <v>1397</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>1294</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1307</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>1345</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>1496</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>1463</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>1319</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>1206</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>1309</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>1271</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>1612</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>1281</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>1275</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>1346</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>1047</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>1560</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>1522</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <v>1067</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="1">
         <v>1205</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>1137</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
         <v>1306</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <v>1475</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="1">
         <v>1362</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="1">
         <v>1505</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="1">
         <v>1515</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="1">
         <v>1087</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="1">
         <v>1555</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="1">
         <v>1118</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="1">
         <v>1055</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>1380</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>1010</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>1399</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>1363</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>1245</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>1589</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>1429</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>1147</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>1211</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>1126</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>1167</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>1113</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>1403</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>1187</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>1587</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>1163</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>1571</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="1">
         <v>1150</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <v>1490</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="1">
         <v>1513</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <v>1107</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="1">
         <v>1372</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="1">
         <v>1189</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <v>1318</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="1">
         <v>1273</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="1">
         <v>1581</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="1">
         <v>1339</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="1">
         <v>1139</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
         <v>1118</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>1422</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>1590</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>1420</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>1519</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>1526</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>1116</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>1299</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>1108</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>1118</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>1358</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>1516</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>1215</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>1566</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>1456</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>1023</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>1048</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <v>1573</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>1388</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="1">
         <v>1386</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>1438</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="1">
         <v>1072</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="1">
         <v>1463</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <v>1322</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="1">
         <v>1501</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="1">
         <v>1431</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="1">
         <v>1425</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="1">
         <v>1492</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>1029</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>1144</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>1381</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>1129</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1590</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>1101</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>1224</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>1474</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>1409</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>1307</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>1427</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>1516</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>1613</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="1">
         <v>1155</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>1245</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>1158</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>1132</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="1">
         <v>1165</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>1126</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <v>1201</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>1152</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>1093</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="1">
         <v>1491</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>1532</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="1">
         <v>1281</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="1">
         <v>1017</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="1">
         <v>1242</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="1">
         <v>1211</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
         <v>1612</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1246</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>1471</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>1489</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>1489</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>1319</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>1141</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>1033</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>1284</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>1143</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>1531</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>1114</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>1159</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>1490</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>1444</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>1210</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>1200</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>1492</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>1074</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <v>1130</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>1205</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>1389</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="1">
         <v>1495</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <v>1184</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="1">
         <v>1219</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="1">
         <v>1616</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="1">
         <v>1499</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="1">
         <v>1530</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
         <v>1292</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1181</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>1043</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>1140</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>1465</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>1196</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>1397</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>1178</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>1399</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>1119</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>1479</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>1053</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>1063</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>1351</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>1611</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>1016</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>1163</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <v>1302</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>1233</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="1">
         <v>1215</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <v>1227</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="1">
         <v>1364</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="1">
         <v>1182</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <v>1411</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="1">
         <v>1577</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="1">
         <v>1115</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="1">
         <v>1109</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="1">
         <v>1465</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
         <v>1086</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>1310</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>1230</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>1431</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1421</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>1282</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>1417</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>1436</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>1324</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>1305</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>1283</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>1503</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>1404</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>1244</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>1513</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>1172</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>1236</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>1468</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>1510</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>1473</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>1170</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <v>1302</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>1214</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>1217</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>1536</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="1">
         <v>1586</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="1">
         <v>1287</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="1">
         <v>1197</v>
       </c>
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6693,7 +6758,7 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6804,7 +6869,7 @@
       <c r="C2">
         <v>107</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>241</v>
       </c>
       <c r="E2">
@@ -6917,7 +6982,7 @@
       <c r="J3">
         <v>134</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>95</v>
       </c>
       <c r="L3">
@@ -6950,7 +7015,7 @@
       <c r="U3">
         <v>67</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="2">
         <v>42</v>
       </c>
       <c r="W3">
@@ -7101,7 +7166,7 @@
       <c r="J5">
         <v>248</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>42</v>
       </c>
       <c r="L5">
@@ -7190,7 +7255,7 @@
       <c r="I6">
         <v>202</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>46</v>
       </c>
       <c r="K6">
@@ -7241,7 +7306,7 @@
       <c r="Z6">
         <v>307</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="2">
         <v>57</v>
       </c>
       <c r="AB6">
@@ -7772,7 +7837,7 @@
       <c r="S12">
         <v>141</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <v>95</v>
       </c>
       <c r="U12">
@@ -7781,7 +7846,7 @@
       <c r="V12">
         <v>254</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="2">
         <v>103</v>
       </c>
       <c r="X12">
@@ -7825,7 +7890,7 @@
       <c r="F13">
         <v>112</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>55</v>
       </c>
       <c r="H13">
@@ -7834,7 +7899,7 @@
       <c r="I13">
         <v>193</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>89</v>
       </c>
       <c r="K13">
@@ -8042,7 +8107,7 @@
       <c r="Q15">
         <v>191</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <v>59</v>
       </c>
       <c r="S15">
@@ -8057,7 +8122,7 @@
       <c r="V15">
         <v>255</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="2">
         <v>44</v>
       </c>
       <c r="X15">
@@ -8095,7 +8160,7 @@
       <c r="D16">
         <v>412</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>38</v>
       </c>
       <c r="F16">
@@ -8214,7 +8279,7 @@
       <c r="M17">
         <v>279</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <v>75</v>
       </c>
       <c r="O17">
@@ -8256,7 +8321,7 @@
       <c r="AA17">
         <v>277</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="2">
         <v>55</v>
       </c>
       <c r="AC17">
@@ -8404,13 +8469,13 @@
       <c r="O19">
         <v>35</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="2">
         <v>56</v>
       </c>
       <c r="Q19">
         <v>178</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="2">
         <v>66</v>
       </c>
       <c r="S19">
@@ -8549,7 +8614,7 @@
       <c r="B21">
         <v>150</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>67</v>
       </c>
       <c r="D21">
@@ -8573,7 +8638,7 @@
       <c r="J21">
         <v>201</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <v>28</v>
       </c>
       <c r="L21">
@@ -8638,7 +8703,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>65</v>
       </c>
       <c r="C22">
@@ -8840,7 +8905,7 @@
       <c r="G24">
         <v>249</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>168</v>
       </c>
       <c r="I24">
@@ -8900,7 +8965,7 @@
       <c r="AA24">
         <v>345</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="2">
         <v>80</v>
       </c>
       <c r="AC24">
@@ -8935,7 +9000,7 @@
       <c r="H25">
         <v>249</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>57</v>
       </c>
       <c r="J25">
@@ -8950,7 +9015,7 @@
       <c r="M25">
         <v>200</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="2">
         <v>74</v>
       </c>
       <c r="O25">
@@ -9024,7 +9089,7 @@
       <c r="G26">
         <v>301</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>95</v>
       </c>
       <c r="I26">
@@ -9060,7 +9125,7 @@
       <c r="S26">
         <v>181</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="2">
         <v>69</v>
       </c>
       <c r="U26">
@@ -9297,13 +9362,13 @@
       <c r="F29">
         <v>121</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>60</v>
       </c>
       <c r="H29">
         <v>314</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>81</v>
       </c>
       <c r="J29">
@@ -9380,7 +9445,7 @@
       <c r="C30">
         <v>79</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>77</v>
       </c>
       <c r="E30">
@@ -9449,7 +9514,7 @@
       <c r="Z30">
         <v>350</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AA30" s="2">
         <v>39</v>
       </c>
       <c r="AB30">
